--- a/plantillas/consulta/Reporte_UT-VPV.xlsx
+++ b/plantillas/consulta/Reporte_UT-VPV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D791E175-6C67-45C6-8DE6-530A5E4CEA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45301C4B-4F2B-43D8-9A70-F7495FDD33FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fecha:</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Nombre de la Unidad Territorial</t>
   </si>
   <si>
-    <t>FORMATO X</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dirección Distrital: </t>
   </si>
   <si>
@@ -49,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,11 +75,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -154,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,45 +154,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -516,10 +502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -530,17 +516,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="15"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -548,49 +534,42 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C9" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
     </row>
